--- a/小说/宫部美雪_火车.xlsx
+++ b/小说/宫部美雪_火车.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project_Novel\Source\小说\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080BBCF-6949-40F1-9DC0-3AE494DEDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C34573-0C44-4772-819A-7DFBF982170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,50 @@
   </si>
   <si>
     <t>本间找到了真章子的破产律师，律师介绍了日本的信用卡制度和危害，也解释了真章子破产的原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家附近，本间遇到贞定夫，贞定夫正在指挥小孩们找失踪的狗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贞定夫为本间提供了真章子的户籍信息和工作履历。本间梳理清楚了真章子的工作轨迹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贞定夫请教本间一个案子，本间表示现在的女性犯罪不一定像过去一样要和感情有关，一定要有男人作为帮凶，时代变了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井坂拿来了本间放大的照片，发现假惠子与人合照的照片是一个棒球场灯光向外照明的地方，这很不常见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间来到真章子过去工作的酒廊，了解了真章子的工作情况，并且确认假的章子不是真章子比较亲密的朋友，因为真章子不喜欢交朋友。但是假章子是如何取得真章子的身份信息的呢？一般来说应该是比较亲密的朋友，但假章子显然不是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在谈到真章子母亲去世的问题时，酒廊的妈妈表示，真章子的母亲时酒后失足摔死的。并且叫救护车的是个年轻女孩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间思考日本信用制度对日本债务人的影响。坐电车去了真章子的故乡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间从真章子老家一个美容院老板哪里得知，真章子的母亲是在一间位于3楼的酒馆的室外楼梯摔下来去世的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美发店老板向本间介绍了真章子的一些基本情况，并建议本间去找真章子的同学去了解情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间找到了真章子的好友阿保，并且阿保的妻子就是发现真章子母亲摔下来的人。同时，玉子发现在真章子母亲 的案发现场有一个戴墨镜的不明女人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间在与阿宝和玉子的沟通中了解到，在老家的人认为真章子为了还债，杀死了自己的母亲，骗取保险金。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,10 +311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G48:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,19 +627,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -609,25 +653,25 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -641,7 +685,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -655,13 +699,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -675,7 +719,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -689,13 +733,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
@@ -709,7 +753,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
@@ -723,13 +767,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
@@ -743,7 +787,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
@@ -757,7 +801,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
@@ -770,126 +814,175 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>12</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>13</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>14</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>15</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>16</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>17</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>19</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>22</v>
-      </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
+        <v>23</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>24</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>25</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>26</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>27</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>29</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B54" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+  <mergeCells count="13">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/小说/宫部美雪_火车.xlsx
+++ b/小说/宫部美雪_火车.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project_Novel\Source\小说\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C34573-0C44-4772-819A-7DFBF982170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE107D38-3B71-4A67-87EB-7F93BE2444E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,38 @@
   </si>
   <si>
     <t>本间在与阿宝和玉子的沟通中了解到，在老家的人认为真章子为了还债，杀死了自己的母亲，骗取保险金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿宝决定帮助本间调查真章子的事情，同时带本间去了真章子母亲发生意外的酒吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间与阿保见了当年负责真章子母亲案子的刑警，刑警表示排除他杀的原因如下：1凶手杀人后没有办法逃离现场，且不被周围的人发现2现场没有能够让凶手躲藏而不被发现的地点，如果呆在店里一直等，有看不见真章子母亲的行踪，从而无法掌握下手的时机。另外，真章子在她母亲出事时有不在场证明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小智给本间打来电话，说棒球场射灯向外照的谜团解开了。是因为一间样品屋被建设在了球场内部，这个球场在大阪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间来到大阪，找到了建在球场中的房屋展示公司，公司的员工虽然不认识假章子，但是认出假章子的制服是他们关联公司的，建议本间去公司的研修中心问问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间来到三友建筑的研修中心，但中心的人表示他们也无法确认照片中的人。但本间无意中在公司的介绍手册上，发现了玫瑰专线的公司，真章子曾经在这邮购过东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间来到玫瑰专线公司，在公司的简介上发现，如果想得到公司的礼品，需要填写调查问卷，提供很多隐私信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间请求确认照片的要求被拒绝了，但有一个公司的男子想要私下与本间交谈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子叫片赖，假章子叫新城桥子，是片赖过去的下属。本间觉得二人关系不一般，片赖向本间表示新城在玫瑰公司工作期间是决定没有机会接触到客户资料的。但本间怀疑是片赖帮助新城偷资料。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,10 +343,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G48:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I51" sqref="I49:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,19 +659,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,25 +685,25 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -685,7 +717,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -699,13 +731,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -719,7 +751,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -733,13 +765,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
@@ -753,7 +785,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
@@ -767,13 +799,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
@@ -787,7 +819,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
@@ -801,7 +833,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
@@ -823,19 +855,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
@@ -849,7 +881,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
@@ -871,114 +903,154 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>17</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>18</v>
       </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>19</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>20</v>
-      </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>22</v>
-      </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>23</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>24</v>
-      </c>
-      <c r="B49" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
+        <v>24</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>25</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>26</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>28</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>29</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B59" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A40"/>
+  <mergeCells count="17">
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
